--- a/data/trans_orig/iP30B6_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/iP30B6_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2481B939-A0D9-4F98-9D2F-08D07EFDD6B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEBA6B1A-D865-41E8-9189-3A2358ED4100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{D11E4FC0-996D-4B84-8841-A5CAFA78358F}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{032E073C-7012-4FAF-ADAB-35CC0CA959C2}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,12 +65,132 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>59,74%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>82,39%</t>
   </si>
   <si>
@@ -98,9 +218,6 @@
     <t>86,08%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>17,61%</t>
   </si>
   <si>
@@ -128,64 +245,61 @@
     <t>20,5%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -243,120 +357,6 @@
   </si>
   <si>
     <t>26,18%</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
   </si>
   <si>
     <t>81,4%</t>
@@ -802,7 +802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35FBFA9-353E-4894-B948-766B096A0249}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD24500D-D160-467C-9B56-E3A3C48CEE4E}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -920,10 +920,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>273</v>
+        <v>15</v>
       </c>
       <c r="D4" s="7">
-        <v>200144</v>
+        <v>10165</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -935,10 +935,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>224</v>
+        <v>21</v>
       </c>
       <c r="I4" s="7">
-        <v>157512</v>
+        <v>12226</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -950,10 +950,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>497</v>
+        <v>36</v>
       </c>
       <c r="N4" s="7">
-        <v>357656</v>
+        <v>22390</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -971,10 +971,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>42769</v>
+        <v>1232</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -986,10 +986,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="I5" s="7">
-        <v>30405</v>
+        <v>3773</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1001,10 +1001,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="N5" s="7">
-        <v>73174</v>
+        <v>5005</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1022,10 +1022,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>324</v>
+        <v>17</v>
       </c>
       <c r="D6" s="7">
-        <v>242913</v>
+        <v>11397</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1037,10 +1037,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>269</v>
+        <v>26</v>
       </c>
       <c r="I6" s="7">
-        <v>187917</v>
+        <v>15999</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1052,10 +1052,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>593</v>
+        <v>43</v>
       </c>
       <c r="N6" s="7">
-        <v>430830</v>
+        <v>27395</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1230,10 +1230,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>189</v>
+        <v>273</v>
       </c>
       <c r="D10" s="7">
-        <v>137982</v>
+        <v>200144</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1245,10 +1245,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="I10" s="7">
-        <v>125968</v>
+        <v>157512</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1260,10 +1260,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>370</v>
+        <v>497</v>
       </c>
       <c r="N10" s="7">
-        <v>263950</v>
+        <v>357656</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1281,10 +1281,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D11" s="7">
-        <v>33474</v>
+        <v>42769</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1296,10 +1296,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="I11" s="7">
-        <v>42522</v>
+        <v>30405</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1311,10 +1311,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N11" s="7">
-        <v>75997</v>
+        <v>73174</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1332,10 +1332,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>232</v>
+        <v>324</v>
       </c>
       <c r="D12" s="7">
-        <v>171456</v>
+        <v>242913</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1347,10 +1347,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>235</v>
+        <v>269</v>
       </c>
       <c r="I12" s="7">
-        <v>168490</v>
+        <v>187917</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1362,10 +1362,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>467</v>
+        <v>593</v>
       </c>
       <c r="N12" s="7">
-        <v>339947</v>
+        <v>430830</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1385,10 +1385,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>15</v>
+        <v>174</v>
       </c>
       <c r="D13" s="7">
-        <v>10165</v>
+        <v>137404</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1400,10 +1400,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>21</v>
+        <v>193</v>
       </c>
       <c r="I13" s="7">
-        <v>12226</v>
+        <v>143878</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1415,10 +1415,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>36</v>
+        <v>367</v>
       </c>
       <c r="N13" s="7">
-        <v>22390</v>
+        <v>281282</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1436,10 +1436,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="D14" s="7">
-        <v>1232</v>
+        <v>33715</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1451,10 +1451,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I14" s="7">
-        <v>3773</v>
+        <v>22690</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1466,10 +1466,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="N14" s="7">
-        <v>5005</v>
+        <v>56405</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1487,10 +1487,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>17</v>
+        <v>220</v>
       </c>
       <c r="D15" s="7">
-        <v>11397</v>
+        <v>171119</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1502,10 +1502,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>26</v>
+        <v>223</v>
       </c>
       <c r="I15" s="7">
-        <v>15999</v>
+        <v>166568</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1517,10 +1517,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>43</v>
+        <v>443</v>
       </c>
       <c r="N15" s="7">
-        <v>27395</v>
+        <v>337687</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1540,10 +1540,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D16" s="7">
-        <v>137404</v>
+        <v>137982</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -1555,10 +1555,10 @@
         <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="I16" s="7">
-        <v>143878</v>
+        <v>125968</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -1570,10 +1570,10 @@
         <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="N16" s="7">
-        <v>281282</v>
+        <v>263950</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -1591,10 +1591,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D17" s="7">
-        <v>33715</v>
+        <v>33474</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -1606,10 +1606,10 @@
         <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="I17" s="7">
-        <v>22690</v>
+        <v>42522</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -1621,10 +1621,10 @@
         <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="N17" s="7">
-        <v>56405</v>
+        <v>75997</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -1642,10 +1642,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="D18" s="7">
-        <v>171119</v>
+        <v>171456</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1657,10 +1657,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="I18" s="7">
-        <v>166568</v>
+        <v>168490</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1672,10 +1672,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>443</v>
+        <v>467</v>
       </c>
       <c r="N18" s="7">
-        <v>337687</v>
+        <v>339947</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/iP30B6_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/iP30B6_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEBA6B1A-D865-41E8-9189-3A2358ED4100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2C78B01-D777-40E0-AE11-E0CD2E251C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{032E073C-7012-4FAF-ADAB-35CC0CA959C2}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CEECD910-46FB-452B-A674-8937290D92DF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
   <si>
     <t>Menores según si desayunan bollería industrial en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
@@ -68,6 +68,36 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -98,319 +128,292 @@
     <t>91,48%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
     <t>81,55%</t>
   </si>
   <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
   </si>
   <si>
     <t>82,42%</t>
   </si>
   <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
   </si>
   <si>
     <t>81,96%</t>
   </si>
   <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
     <t>82,39%</t>
   </si>
   <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
   </si>
   <si>
     <t>83,82%</t>
   </si>
   <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
   </si>
   <si>
     <t>83,02%</t>
   </si>
   <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
   </si>
   <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
     <t>80,3%</t>
   </si>
   <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
   </si>
   <si>
     <t>86,38%</t>
   </si>
   <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
   </si>
   <si>
     <t>83,3%</t>
   </si>
   <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
     <t>80,48%</t>
   </si>
   <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
   </si>
   <si>
     <t>74,76%</t>
   </si>
   <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
   </si>
   <si>
     <t>77,64%</t>
   </si>
   <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
   </si>
   <si>
     <t>81,4%</t>
   </si>
   <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
   </si>
   <si>
     <t>81,7%</t>
   </si>
   <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
   </si>
   <si>
     <t>81,54%</t>
   </si>
   <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -421,7 +424,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -517,39 +520,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -601,7 +604,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -712,13 +715,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -727,6 +723,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -791,19 +794,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD24500D-D160-467C-9B56-E3A3C48CEE4E}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{566EEC1D-28D2-4F6D-BC56-C2E615B23C44}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -920,10 +943,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>10165</v>
+        <v>1232</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -935,10 +958,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>12226</v>
+        <v>3773</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -950,10 +973,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="N4" s="7">
-        <v>22390</v>
+        <v>5005</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -971,10 +994,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D5" s="7">
-        <v>1232</v>
+        <v>10165</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -986,10 +1009,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="I5" s="7">
-        <v>3773</v>
+        <v>12226</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1001,10 +1024,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="N5" s="7">
-        <v>5005</v>
+        <v>22390</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1075,10 +1098,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="D7" s="7">
-        <v>91696</v>
+        <v>20752</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1090,10 +1113,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>139</v>
+        <v>23</v>
       </c>
       <c r="I7" s="7">
-        <v>83772</v>
+        <v>17863</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1105,10 +1128,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>261</v>
+        <v>48</v>
       </c>
       <c r="N7" s="7">
-        <v>175467</v>
+        <v>38616</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1126,10 +1149,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="D8" s="7">
-        <v>20752</v>
+        <v>91696</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1141,10 +1164,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>23</v>
+        <v>139</v>
       </c>
       <c r="I8" s="7">
-        <v>17863</v>
+        <v>83772</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1156,10 +1179,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>48</v>
+        <v>261</v>
       </c>
       <c r="N8" s="7">
-        <v>38616</v>
+        <v>175467</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1230,10 +1253,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>273</v>
+        <v>51</v>
       </c>
       <c r="D10" s="7">
-        <v>200144</v>
+        <v>42769</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1245,10 +1268,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>224</v>
+        <v>45</v>
       </c>
       <c r="I10" s="7">
-        <v>157512</v>
+        <v>30405</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1260,10 +1283,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>497</v>
+        <v>96</v>
       </c>
       <c r="N10" s="7">
-        <v>357656</v>
+        <v>73174</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1281,10 +1304,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>51</v>
+        <v>273</v>
       </c>
       <c r="D11" s="7">
-        <v>42769</v>
+        <v>200144</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1296,10 +1319,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>45</v>
+        <v>224</v>
       </c>
       <c r="I11" s="7">
-        <v>30405</v>
+        <v>157512</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1311,10 +1334,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>96</v>
+        <v>497</v>
       </c>
       <c r="N11" s="7">
-        <v>73174</v>
+        <v>357656</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1385,10 +1408,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>174</v>
+        <v>46</v>
       </c>
       <c r="D13" s="7">
-        <v>137404</v>
+        <v>33715</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1400,10 +1423,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>193</v>
+        <v>30</v>
       </c>
       <c r="I13" s="7">
-        <v>143878</v>
+        <v>22690</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1415,10 +1438,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>367</v>
+        <v>76</v>
       </c>
       <c r="N13" s="7">
-        <v>281282</v>
+        <v>56405</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1436,10 +1459,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>46</v>
+        <v>174</v>
       </c>
       <c r="D14" s="7">
-        <v>33715</v>
+        <v>137404</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1451,10 +1474,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>30</v>
+        <v>193</v>
       </c>
       <c r="I14" s="7">
-        <v>22690</v>
+        <v>143878</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1466,10 +1489,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>76</v>
+        <v>367</v>
       </c>
       <c r="N14" s="7">
-        <v>56405</v>
+        <v>281282</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1540,10 +1563,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>189</v>
+        <v>43</v>
       </c>
       <c r="D16" s="7">
-        <v>137982</v>
+        <v>33474</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -1555,10 +1578,10 @@
         <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>181</v>
+        <v>54</v>
       </c>
       <c r="I16" s="7">
-        <v>125968</v>
+        <v>42522</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -1570,10 +1593,10 @@
         <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>370</v>
+        <v>97</v>
       </c>
       <c r="N16" s="7">
-        <v>263950</v>
+        <v>75997</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -1591,10 +1614,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>43</v>
+        <v>189</v>
       </c>
       <c r="D17" s="7">
-        <v>33474</v>
+        <v>137982</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -1606,10 +1629,10 @@
         <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>54</v>
+        <v>181</v>
       </c>
       <c r="I17" s="7">
-        <v>42522</v>
+        <v>125968</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -1621,10 +1644,10 @@
         <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>97</v>
+        <v>370</v>
       </c>
       <c r="N17" s="7">
-        <v>75997</v>
+        <v>263950</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -1695,10 +1718,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>773</v>
+        <v>167</v>
       </c>
       <c r="D19" s="7">
-        <v>577392</v>
+        <v>131942</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>107</v>
@@ -1710,10 +1733,10 @@
         <v>109</v>
       </c>
       <c r="H19" s="7">
-        <v>758</v>
+        <v>157</v>
       </c>
       <c r="I19" s="7">
-        <v>523355</v>
+        <v>117254</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>110</v>
@@ -1725,10 +1748,10 @@
         <v>112</v>
       </c>
       <c r="M19" s="7">
-        <v>1531</v>
+        <v>324</v>
       </c>
       <c r="N19" s="7">
-        <v>1100746</v>
+        <v>249196</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>113</v>
@@ -1746,10 +1769,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>167</v>
+        <v>773</v>
       </c>
       <c r="D20" s="7">
-        <v>131942</v>
+        <v>577391</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>116</v>
@@ -1761,10 +1784,10 @@
         <v>118</v>
       </c>
       <c r="H20" s="7">
-        <v>157</v>
+        <v>758</v>
       </c>
       <c r="I20" s="7">
-        <v>117254</v>
+        <v>523355</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>119</v>
@@ -1776,10 +1799,10 @@
         <v>121</v>
       </c>
       <c r="M20" s="7">
-        <v>324</v>
+        <v>1531</v>
       </c>
       <c r="N20" s="7">
-        <v>249196</v>
+        <v>1100746</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>122</v>
@@ -1800,7 +1823,7 @@
         <v>940</v>
       </c>
       <c r="D21" s="7">
-        <v>709334</v>
+        <v>709333</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1840,6 +1863,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/iP30B6_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/iP30B6_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2C78B01-D777-40E0-AE11-E0CD2E251C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{04490332-CC74-4D66-9A8D-2FCC6737C0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CEECD910-46FB-452B-A674-8937290D92DF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{085F6478-109B-421B-BC65-50E839FEBB20}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -77,25 +77,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>40,26%</t>
+    <t>34,09%</t>
   </si>
   <si>
     <t>23,58%</t>
   </si>
   <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
   </si>
   <si>
     <t>18,27%</t>
   </si>
   <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,7 +104,7 @@
     <t>89,19%</t>
   </si>
   <si>
-    <t>59,74%</t>
+    <t>65,91%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -113,193 +113,193 @@
     <t>76,42%</t>
   </si>
   <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
   </si>
   <si>
     <t>81,73%</t>
   </si>
   <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>18,45%</t>
   </si>
   <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
   </si>
   <si>
     <t>17,58%</t>
   </si>
   <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
   </si>
   <si>
     <t>18,04%</t>
   </si>
   <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
   </si>
   <si>
     <t>81,55%</t>
   </si>
   <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
   </si>
   <si>
     <t>82,42%</t>
   </si>
   <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
   </si>
   <si>
     <t>81,96%</t>
   </si>
   <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>17,61%</t>
   </si>
   <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
   </si>
   <si>
     <t>16,18%</t>
   </si>
   <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
   </si>
   <si>
     <t>16,98%</t>
   </si>
   <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
   </si>
   <si>
     <t>82,39%</t>
   </si>
   <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
   </si>
   <si>
     <t>83,82%</t>
   </si>
   <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
   </si>
   <si>
     <t>83,02%</t>
   </si>
   <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>19,7%</t>
   </si>
   <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
   </si>
   <si>
     <t>13,62%</t>
   </si>
   <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
   </si>
   <si>
     <t>16,7%</t>
   </si>
   <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
   </si>
   <si>
     <t>80,3%</t>
   </si>
   <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
   </si>
   <si>
     <t>86,38%</t>
   </si>
   <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
   </si>
   <si>
     <t>83,3%</t>
   </si>
   <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -308,109 +308,109 @@
     <t>19,52%</t>
   </si>
   <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
   </si>
   <si>
     <t>25,24%</t>
   </si>
   <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
   </si>
   <si>
     <t>22,36%</t>
   </si>
   <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
   </si>
   <si>
     <t>80,48%</t>
   </si>
   <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
   </si>
   <si>
     <t>74,76%</t>
   </si>
   <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
   </si>
   <si>
     <t>77,64%</t>
   </si>
   <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
   </si>
   <si>
     <t>18,6%</t>
   </si>
   <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
   </si>
   <si>
     <t>18,3%</t>
   </si>
   <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
   </si>
   <si>
     <t>18,46%</t>
   </si>
   <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
   </si>
   <si>
     <t>81,4%</t>
   </si>
   <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
   </si>
   <si>
     <t>81,7%</t>
   </si>
   <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
   </si>
   <si>
     <t>81,54%</t>
   </si>
   <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -825,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{566EEC1D-28D2-4F6D-BC56-C2E615B23C44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46871191-88CD-46FA-BC65-FBED2B52BBE0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/iP30B6_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/iP30B6_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04490332-CC74-4D66-9A8D-2FCC6737C0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94C9010B-2E95-4BA4-A264-82F5231E6C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{085F6478-109B-421B-BC65-50E839FEBB20}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E2F1D587-84D6-4A76-A1C3-E9AF43B3A3AD}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>Menores según si desayunan bollería industrial en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,352 +65,295 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
   </si>
   <si>
     <t>18,27%</t>
   </si>
   <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
   </si>
   <si>
     <t>81,73%</t>
   </si>
   <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
+    <t>79,52%</t>
   </si>
   <si>
     <t>83,82%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -825,8 +768,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46871191-88CD-46FA-BC65-FBED2B52BBE0}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536E8742-01E1-479F-AFD3-46F4D48430A9}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -943,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D4" s="7">
-        <v>1232</v>
+        <v>19586</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -958,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="I4" s="7">
-        <v>3773</v>
+        <v>26633</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -973,10 +916,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="N4" s="7">
-        <v>5005</v>
+        <v>46220</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -994,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c r="D5" s="7">
-        <v>10165</v>
+        <v>94665</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1009,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>21</v>
+        <v>137</v>
       </c>
       <c r="I5" s="7">
-        <v>12226</v>
+        <v>110182</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1024,10 +967,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>36</v>
+        <v>297</v>
       </c>
       <c r="N5" s="7">
-        <v>22390</v>
+        <v>204846</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1045,10 +988,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>17</v>
+        <v>188</v>
       </c>
       <c r="D6" s="7">
-        <v>11397</v>
+        <v>114251</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1060,10 +1003,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>26</v>
+        <v>164</v>
       </c>
       <c r="I6" s="7">
-        <v>15999</v>
+        <v>136815</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1075,10 +1018,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>43</v>
+        <v>352</v>
       </c>
       <c r="N6" s="7">
-        <v>27395</v>
+        <v>251066</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1098,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D7" s="7">
-        <v>20752</v>
+        <v>30477</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1113,10 +1056,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="I7" s="7">
-        <v>17863</v>
+        <v>43455</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1128,10 +1071,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="N7" s="7">
-        <v>38616</v>
+        <v>73932</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1149,10 +1092,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>122</v>
+        <v>224</v>
       </c>
       <c r="D8" s="7">
-        <v>91696</v>
+        <v>155637</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1164,10 +1107,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>139</v>
+        <v>273</v>
       </c>
       <c r="I8" s="7">
-        <v>83772</v>
+        <v>204065</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1179,10 +1122,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>261</v>
+        <v>497</v>
       </c>
       <c r="N8" s="7">
-        <v>175467</v>
+        <v>359702</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1200,10 +1143,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>147</v>
+        <v>269</v>
       </c>
       <c r="D9" s="7">
-        <v>112448</v>
+        <v>186114</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1215,10 +1158,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>162</v>
+        <v>324</v>
       </c>
       <c r="I9" s="7">
-        <v>101635</v>
+        <v>247520</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1230,10 +1173,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>309</v>
+        <v>593</v>
       </c>
       <c r="N9" s="7">
-        <v>214083</v>
+        <v>433634</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1253,10 +1196,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="D10" s="7">
-        <v>42769</v>
+        <v>23190</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1268,10 +1211,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I10" s="7">
-        <v>30405</v>
+        <v>35950</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1283,10 +1226,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="N10" s="7">
-        <v>73174</v>
+        <v>59140</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1304,10 +1247,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>273</v>
+        <v>193</v>
       </c>
       <c r="D11" s="7">
-        <v>200144</v>
+        <v>165059</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1319,10 +1262,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>224</v>
+        <v>174</v>
       </c>
       <c r="I11" s="7">
-        <v>157512</v>
+        <v>147139</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1334,10 +1277,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>497</v>
+        <v>367</v>
       </c>
       <c r="N11" s="7">
-        <v>357656</v>
+        <v>312199</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1355,10 +1298,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>324</v>
+        <v>223</v>
       </c>
       <c r="D12" s="7">
-        <v>242913</v>
+        <v>188249</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1370,10 +1313,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>269</v>
+        <v>220</v>
       </c>
       <c r="I12" s="7">
-        <v>187917</v>
+        <v>183089</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1385,10 +1328,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>593</v>
+        <v>443</v>
       </c>
       <c r="N12" s="7">
-        <v>430830</v>
+        <v>371339</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1408,10 +1351,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D13" s="7">
-        <v>33715</v>
+        <v>40927</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1423,10 +1366,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="I13" s="7">
-        <v>22690</v>
+        <v>35172</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1438,10 +1381,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="N13" s="7">
-        <v>56405</v>
+        <v>76099</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1459,10 +1402,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="D14" s="7">
-        <v>137404</v>
+        <v>123592</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1474,10 +1417,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="I14" s="7">
-        <v>143878</v>
+        <v>142137</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1489,10 +1432,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="N14" s="7">
-        <v>281282</v>
+        <v>265729</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1510,10 +1453,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="D15" s="7">
-        <v>171119</v>
+        <v>164519</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1525,10 +1468,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="I15" s="7">
-        <v>166568</v>
+        <v>177309</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1540,10 +1483,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>443</v>
+        <v>467</v>
       </c>
       <c r="N15" s="7">
-        <v>337687</v>
+        <v>341828</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1557,55 +1500,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>43</v>
+        <v>157</v>
       </c>
       <c r="D16" s="7">
-        <v>33474</v>
+        <v>114180</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>167</v>
+      </c>
+      <c r="I16" s="7">
+        <v>141210</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>54</v>
-      </c>
-      <c r="I16" s="7">
-        <v>42522</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>324</v>
+      </c>
+      <c r="N16" s="7">
+        <v>255390</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>97</v>
-      </c>
-      <c r="N16" s="7">
-        <v>75997</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,49 +1557,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>189</v>
+        <v>758</v>
       </c>
       <c r="D17" s="7">
-        <v>137982</v>
+        <v>538954</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>773</v>
+      </c>
+      <c r="I17" s="7">
+        <v>603523</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>181</v>
-      </c>
-      <c r="I17" s="7">
-        <v>125968</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>1531</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1142477</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>370</v>
-      </c>
-      <c r="N17" s="7">
-        <v>263950</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1665,10 +1608,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>232</v>
+        <v>915</v>
       </c>
       <c r="D18" s="7">
-        <v>171456</v>
+        <v>653134</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1680,10 +1623,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>235</v>
+        <v>940</v>
       </c>
       <c r="I18" s="7">
-        <v>168490</v>
+        <v>744733</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1695,10 +1638,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>467</v>
+        <v>1855</v>
       </c>
       <c r="N18" s="7">
-        <v>339947</v>
+        <v>1397867</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1711,171 +1654,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>167</v>
-      </c>
-      <c r="D19" s="7">
-        <v>131942</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>157</v>
-      </c>
-      <c r="I19" s="7">
-        <v>117254</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>324</v>
-      </c>
-      <c r="N19" s="7">
-        <v>249196</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>773</v>
-      </c>
-      <c r="D20" s="7">
-        <v>577391</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>758</v>
-      </c>
-      <c r="I20" s="7">
-        <v>523355</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1531</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1100746</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>940</v>
-      </c>
-      <c r="D21" s="7">
-        <v>709333</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>915</v>
-      </c>
-      <c r="I21" s="7">
-        <v>640609</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1855</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1349942</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
